--- a/HW2/data2.xlsx
+++ b/HW2/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Disk_D\USERS\Buhrii_Kh\university\GitHub_progect_folder\HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51BE39DC-E4BC-4340-B197-E2CEF84F969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11076C5-D2BE-43B2-84B3-4A56DDA10E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -3360,7 +3360,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6484,8 +6486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8901,26 +8903,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0c37b30d-845a-42e6-96a8-37a14b0deb23" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="850dc5fa-d00b-4793-be08-fe7acc31f49f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D8785079819254795D6F0E9F8434E49" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6fbeded9bdf05fccdc1bfa7b807d7fe2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="850dc5fa-d00b-4793-be08-fe7acc31f49f" xmlns:ns3="0c37b30d-845a-42e6-96a8-37a14b0deb23" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="011a7e3ed8b489fb7933f9e12d5a0c23" ns2:_="" ns3:_="">
     <xsd:import namespace="850dc5fa-d00b-4793-be08-fe7acc31f49f"/>
@@ -9103,26 +9085,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26F3FB52-CD23-407C-9485-920EF7575224}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="0c37b30d-845a-42e6-96a8-37a14b0deb23"/>
-    <ds:schemaRef ds:uri="850dc5fa-d00b-4793-be08-fe7acc31f49f"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B95E7C0-90AE-4AA4-86D9-EA657B2A03D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0c37b30d-845a-42e6-96a8-37a14b0deb23" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="850dc5fa-d00b-4793-be08-fe7acc31f49f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82305301-5490-4163-9F44-C9D4F24B44F7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9139,4 +9122,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B95E7C0-90AE-4AA4-86D9-EA657B2A03D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26F3FB52-CD23-407C-9485-920EF7575224}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0c37b30d-845a-42e6-96a8-37a14b0deb23"/>
+    <ds:schemaRef ds:uri="850dc5fa-d00b-4793-be08-fe7acc31f49f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>